--- a/resultados_execuções.xlsx
+++ b/resultados_execuções.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nokia-my.sharepoint.com/personal/lirielly_vitorugo_ext_nokia_com/Documents/TAIA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{D8C93F39-37D8-4502-8549-AEA9329B5266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{190B2DD7-1063-4AF2-82DE-78E2890D5D45}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{D8C93F39-37D8-4502-8549-AEA9329B5266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{408F8DE6-4FAE-41BC-8845-0F1252D82CC2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B526188B-A150-4160-8888-5D860A14F4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>VGG1</t>
   </si>
@@ -54,9 +55,6 @@
     <t>VGG16</t>
   </si>
   <si>
-    <t>EfficientNetV2L</t>
-  </si>
-  <si>
     <t>cat / dog / butterfly</t>
   </si>
   <si>
@@ -64,13 +62,181 @@
   </si>
   <si>
     <t>cat / dog - data augmentation</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Size (MB)</t>
+  </si>
+  <si>
+    <t>Top-1 Accuracy</t>
+  </si>
+  <si>
+    <t>Top-5 Accuracy</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Time (ms) per inference step (CPU)</t>
+  </si>
+  <si>
+    <t>Time (ms) per inference step (GPU)</t>
+  </si>
+  <si>
+    <t>Xception</t>
+  </si>
+  <si>
+    <t>22.9M</t>
+  </si>
+  <si>
+    <t>138.4M</t>
+  </si>
+  <si>
+    <t>VGG19</t>
+  </si>
+  <si>
+    <t>143.7M</t>
+  </si>
+  <si>
+    <t>ResNet50</t>
+  </si>
+  <si>
+    <t>25.6M</t>
+  </si>
+  <si>
+    <t>ResNet50V2</t>
+  </si>
+  <si>
+    <t>ResNet101</t>
+  </si>
+  <si>
+    <t>44.7M</t>
+  </si>
+  <si>
+    <t>ResNet101V2</t>
+  </si>
+  <si>
+    <t>ResNet152</t>
+  </si>
+  <si>
+    <t>60.4M</t>
+  </si>
+  <si>
+    <t>ResNet152V2</t>
+  </si>
+  <si>
+    <t>InceptionV3</t>
+  </si>
+  <si>
+    <t>23.9M</t>
+  </si>
+  <si>
+    <t>InceptionResNetV2</t>
+  </si>
+  <si>
+    <t>55.9M</t>
+  </si>
+  <si>
+    <t>MobileNet</t>
+  </si>
+  <si>
+    <t>4.3M</t>
+  </si>
+  <si>
+    <t>MobileNetV2</t>
+  </si>
+  <si>
+    <t>3.5M</t>
+  </si>
+  <si>
+    <t>DenseNet121</t>
+  </si>
+  <si>
+    <t>8.1M</t>
+  </si>
+  <si>
+    <t>DenseNet169</t>
+  </si>
+  <si>
+    <t>14.3M</t>
+  </si>
+  <si>
+    <t>DenseNet201</t>
+  </si>
+  <si>
+    <t>20.2M</t>
+  </si>
+  <si>
+    <t>NASNetMobile</t>
+  </si>
+  <si>
+    <t>5.3M</t>
+  </si>
+  <si>
+    <t>NASNetLarge</t>
+  </si>
+  <si>
+    <t>88.9M</t>
+  </si>
+  <si>
+    <t>EfficientNetB0</t>
+  </si>
+  <si>
+    <t>EfficientNetB1</t>
+  </si>
+  <si>
+    <t>7.9M</t>
+  </si>
+  <si>
+    <t>EfficientNetB2</t>
+  </si>
+  <si>
+    <t>9.2M</t>
+  </si>
+  <si>
+    <t>EfficientNetB3</t>
+  </si>
+  <si>
+    <t>12.3M</t>
+  </si>
+  <si>
+    <t>EfficientNetB4</t>
+  </si>
+  <si>
+    <t>19.5M</t>
+  </si>
+  <si>
+    <t>EfficientNetB5</t>
+  </si>
+  <si>
+    <t>30.6M</t>
+  </si>
+  <si>
+    <t>EfficientNetB6</t>
+  </si>
+  <si>
+    <t>43.3M</t>
+  </si>
+  <si>
+    <t>EfficientNetB7</t>
+  </si>
+  <si>
+    <t>66.7M</t>
+  </si>
+  <si>
+    <t>EfficientNet B7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,16 +244,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -110,15 +315,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -148,37 +391,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -246,7 +459,7 @@
                   <c:v>VGG16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>EfficientNetV2L</c:v>
+                  <c:v>EfficientNet B7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -305,7 +518,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -316,11 +529,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -350,7 +563,7 @@
                   <c:v>VGG16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>EfficientNetV2L</c:v>
+                  <c:v>EfficientNet B7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -454,7 +667,7 @@
                   <c:v>VGG16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>EfficientNetV2L</c:v>
+                  <c:v>EfficientNet B7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -497,6 +710,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1585,7 +1799,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1598,13 +1812,13 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1693,7 +1907,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1">
         <v>98.677999999999997</v>
@@ -1710,4 +1924,758 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1056D237-5BD4-4711-A595-AD031D8A15D5}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="A1:H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3">
+        <v>81</v>
+      </c>
+      <c r="G2" s="3">
+        <v>109.4</v>
+      </c>
+      <c r="H2" s="3">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7">
+        <v>528</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="7">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7">
+        <v>69.5</v>
+      </c>
+      <c r="H3" s="7">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
+        <v>549</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3">
+        <v>84.8</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3">
+        <v>98</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.749</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3">
+        <v>107</v>
+      </c>
+      <c r="G5" s="3">
+        <v>58.2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3">
+        <v>98</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3">
+        <v>103</v>
+      </c>
+      <c r="G6" s="3">
+        <v>45.6</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3">
+        <v>171</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3">
+        <v>209</v>
+      </c>
+      <c r="G7" s="3">
+        <v>89.6</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3">
+        <v>171</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3">
+        <v>205</v>
+      </c>
+      <c r="G8" s="3">
+        <v>72.7</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3">
+        <v>232</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="3">
+        <v>311</v>
+      </c>
+      <c r="G9" s="3">
+        <v>127.4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3">
+        <v>232</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="3">
+        <v>307</v>
+      </c>
+      <c r="G10" s="3">
+        <v>107.5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3">
+        <v>92</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="3">
+        <v>189</v>
+      </c>
+      <c r="G11" s="3">
+        <v>42.2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3">
+        <v>215</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="3">
+        <v>449</v>
+      </c>
+      <c r="G12" s="3">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="H12" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="3">
+        <v>55</v>
+      </c>
+      <c r="G13" s="3">
+        <v>22.6</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="3">
+        <v>105</v>
+      </c>
+      <c r="G14" s="3">
+        <v>25.9</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="3">
+        <v>242</v>
+      </c>
+      <c r="G15" s="3">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3">
+        <v>57</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="3">
+        <v>338</v>
+      </c>
+      <c r="G16" s="3">
+        <v>96.4</v>
+      </c>
+      <c r="H16" s="3">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="3">
+        <v>80</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="3">
+        <v>402</v>
+      </c>
+      <c r="G17" s="3">
+        <v>127.2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="3">
+        <v>23</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="3">
+        <v>389</v>
+      </c>
+      <c r="G18" s="3">
+        <v>27</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="3">
+        <v>343</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="3">
+        <v>533</v>
+      </c>
+      <c r="G19" s="3">
+        <v>344.5</v>
+      </c>
+      <c r="H19" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="3">
+        <v>29</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="3">
+        <v>132</v>
+      </c>
+      <c r="G20" s="3">
+        <v>46</v>
+      </c>
+      <c r="H20" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="3">
+        <v>31</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="3">
+        <v>186</v>
+      </c>
+      <c r="G21" s="3">
+        <v>60.2</v>
+      </c>
+      <c r="H21" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="3">
+        <v>36</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="3">
+        <v>186</v>
+      </c>
+      <c r="G22" s="3">
+        <v>80.8</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="3">
+        <v>48</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="3">
+        <v>210</v>
+      </c>
+      <c r="G23" s="3">
+        <v>140</v>
+      </c>
+      <c r="H23" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="3">
+        <v>75</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="3">
+        <v>258</v>
+      </c>
+      <c r="G24" s="3">
+        <v>308.3</v>
+      </c>
+      <c r="H24" s="3">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="3">
+        <v>118</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="3">
+        <v>312</v>
+      </c>
+      <c r="G25" s="3">
+        <v>579.20000000000005</v>
+      </c>
+      <c r="H25" s="3">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="3">
+        <v>166</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="3">
+        <v>360</v>
+      </c>
+      <c r="G26" s="3">
+        <v>958.1</v>
+      </c>
+      <c r="H26" s="3">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="7">
+        <v>256</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7">
+        <v>438</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1578.9</v>
+      </c>
+      <c r="H27" s="7">
+        <v>61.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://keras.io/api/applications/xception" xr:uid="{29996942-FBB0-4769-9432-3F8DD63EDFDC}"/>
+    <hyperlink ref="A3" r:id="rId2" location="vgg16-function" display="https://keras.io/api/applications/vgg/ - vgg16-function" xr:uid="{187EA250-BAC6-4D5F-AEED-45DB656D68D4}"/>
+    <hyperlink ref="A4" r:id="rId3" location="vgg19-function" display="https://keras.io/api/applications/vgg/ - vgg19-function" xr:uid="{F914ABF3-D17F-46B0-9BF2-A8D20AEEAFCD}"/>
+    <hyperlink ref="A5" r:id="rId4" location="resnet50-function" display="https://keras.io/api/applications/resnet/ - resnet50-function" xr:uid="{ADB500A7-20A8-457B-BE68-F3BDCBE9B553}"/>
+    <hyperlink ref="A6" r:id="rId5" location="resnet50v2-function" display="https://keras.io/api/applications/resnet/ - resnet50v2-function" xr:uid="{022ABFC1-6E37-47D2-802C-8DA68B0052AD}"/>
+    <hyperlink ref="A7" r:id="rId6" location="resnet101-function" display="https://keras.io/api/applications/resnet/ - resnet101-function" xr:uid="{787F5BC4-0A9F-4FCA-8B62-C65407143749}"/>
+    <hyperlink ref="A8" r:id="rId7" location="resnet101v2-function" display="https://keras.io/api/applications/resnet/ - resnet101v2-function" xr:uid="{E827854F-1DE5-4505-B24E-B333BB8570FC}"/>
+    <hyperlink ref="A9" r:id="rId8" location="resnet152-function" display="https://keras.io/api/applications/resnet/ - resnet152-function" xr:uid="{A69C8927-0DD7-4A2E-9E55-11084C6C1224}"/>
+    <hyperlink ref="A10" r:id="rId9" location="resnet152v2-function" display="https://keras.io/api/applications/resnet/ - resnet152v2-function" xr:uid="{AE1AEA24-83FD-445A-95EA-1D443224243C}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://keras.io/api/applications/inceptionv3" xr:uid="{BB00FE78-B7ED-4FE2-AB4D-3C40AF3CE316}"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://keras.io/api/applications/inceptionresnetv2" xr:uid="{7B72B609-6037-415B-A153-2037E04E69EF}"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://keras.io/api/applications/mobilenet" xr:uid="{52B82F53-447B-4D30-A2BE-F7226E70380F}"/>
+    <hyperlink ref="A14" r:id="rId13" location="mobilenetv2-function" display="https://keras.io/api/applications/mobilenet/ - mobilenetv2-function" xr:uid="{3C246DC9-0080-4A52-B254-EE9B1DC32D30}"/>
+    <hyperlink ref="A15" r:id="rId14" location="densenet121-function" display="https://keras.io/api/applications/densenet/ - densenet121-function" xr:uid="{E66012CC-470D-485A-91D6-2B39A5E341BE}"/>
+    <hyperlink ref="A16" r:id="rId15" location="densenet169-function" display="https://keras.io/api/applications/densenet/ - densenet169-function" xr:uid="{5B77452A-88D3-486E-8FF5-0F434A351C6A}"/>
+    <hyperlink ref="A17" r:id="rId16" location="densenet201-function" display="https://keras.io/api/applications/densenet/ - densenet201-function" xr:uid="{A9AAFBBF-9A1F-486A-84FF-9F704D549AFF}"/>
+    <hyperlink ref="A18" r:id="rId17" location="nasnetmobile-function" display="https://keras.io/api/applications/nasnet/ - nasnetmobile-function" xr:uid="{BF0572CB-75CA-4E2B-9B3B-F7C558E013DF}"/>
+    <hyperlink ref="A19" r:id="rId18" location="nasnetlarge-function" display="https://keras.io/api/applications/nasnet/ - nasnetlarge-function" xr:uid="{669FDF14-9F42-4687-AF85-A095DD9127E0}"/>
+    <hyperlink ref="A20" r:id="rId19" location="efficientnetb0-function" display="https://keras.io/api/applications/efficientnet/ - efficientnetb0-function" xr:uid="{B58CA5DF-E8B8-4886-A4B1-430CE9ABF9F6}"/>
+    <hyperlink ref="A21" r:id="rId20" location="efficientnetb1-function" display="https://keras.io/api/applications/efficientnet/ - efficientnetb1-function" xr:uid="{76590C1F-0DD2-4811-BA6D-F662F1DD0E72}"/>
+    <hyperlink ref="A22" r:id="rId21" location="efficientnetb2-function" display="https://keras.io/api/applications/efficientnet/ - efficientnetb2-function" xr:uid="{BF524327-699E-4613-8809-9F56BF981BB8}"/>
+    <hyperlink ref="A23" r:id="rId22" location="efficientnetb3-function" display="https://keras.io/api/applications/efficientnet/ - efficientnetb3-function" xr:uid="{4CC8807F-0D76-488F-A26D-D8D086782AE6}"/>
+    <hyperlink ref="A24" r:id="rId23" location="efficientnetb4-function" display="https://keras.io/api/applications/efficientnet/ - efficientnetb4-function" xr:uid="{7CC453E4-58AE-4031-A490-F3E7764F4115}"/>
+    <hyperlink ref="A25" r:id="rId24" location="efficientnetb5-function" display="https://keras.io/api/applications/efficientnet/ - efficientnetb5-function" xr:uid="{E18FF912-A2F7-47BC-A6F2-3B62C44CC4DD}"/>
+    <hyperlink ref="A26" r:id="rId25" location="efficientnetb6-function" display="https://keras.io/api/applications/efficientnet/ - efficientnetb6-function" xr:uid="{99CF540A-0BBF-4720-80C9-40B06EE93303}"/>
+    <hyperlink ref="A27" r:id="rId26" location="efficientnetb7-function" display="https://keras.io/api/applications/efficientnet/ - efficientnetb7-function" xr:uid="{61488EFF-2A54-4686-A7E4-C75F94A287C4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+</worksheet>
 </file>
--- a/resultados_execuções.xlsx
+++ b/resultados_execuções.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nokia-my.sharepoint.com/personal/lirielly_vitorugo_ext_nokia_com/Documents/TAIA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{D8C93F39-37D8-4502-8549-AEA9329B5266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{408F8DE6-4FAE-41BC-8845-0F1252D82CC2}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{D8C93F39-37D8-4502-8549-AEA9329B5266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C785307B-B279-45F9-81F1-DF66A17E3D81}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B526188B-A150-4160-8888-5D860A14F4A6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>VGG1</t>
   </si>
@@ -230,6 +230,21 @@
   </si>
   <si>
     <t>EfficientNet B7</t>
+  </si>
+  <si>
+    <t>Cats</t>
+  </si>
+  <si>
+    <t>Dogs</t>
+  </si>
+  <si>
+    <t>Butterfly</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>Observations</t>
   </si>
 </sst>
 </file>
@@ -335,7 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -359,6 +374,7 @@
     <xf numFmtId="10" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -468,7 +484,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>71.587999999999994</c:v>
@@ -572,7 +588,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>72.459999999999994</c:v>
@@ -676,7 +692,7 @@
             <c:numRef>
               <c:f>Sheet1!$D$2:$D$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>72.759</c:v>
@@ -710,7 +726,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -797,7 +812,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -915,7 +930,1142 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Original observations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Observations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$12:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cats</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dogs</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Butterfly</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F6C-4F05-915A-056F308235F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1180267752"/>
+        <c:axId val="1180268080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1180267752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1180268080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1180268080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1180267752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Observations after</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> data augmentation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Observations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$17:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cats</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dogs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6725-4A02-B0C4-FF6B0AAD3096}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1180252656"/>
+        <c:axId val="1180252984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1180252656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1180252984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1180252984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1180252656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Observations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7039-4304-8803-6DCAC228A64A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7039-4304-8803-6DCAC228A64A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7039-4304-8803-6DCAC228A64A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$12:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cats</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dogs</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Butterfly</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E79-4A59-A3AA-7C50C827D8BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1458,6 +2608,1529 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1491,6 +4164,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20309576-6BD3-4609-8495-EC4144B9F1C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{623185B7-AC75-4B24-A333-708260E8C194}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>853440</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C328B20-3E03-4F0D-A23E-B6E4CE9E36BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1796,15 +4577,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D59A954-1E67-4E13-8038-278281DA7C2B}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D8" sqref="B2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
@@ -1825,13 +4607,13 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="9">
         <v>71.587999999999994</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="9">
         <v>72.459999999999994</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="9">
         <v>72.759</v>
       </c>
     </row>
@@ -1839,13 +4621,13 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="9">
         <v>76.111000000000004</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="9">
         <v>76.921000000000006</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="9">
         <v>75.099000000000004</v>
       </c>
     </row>
@@ -1853,13 +4635,13 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="9">
         <v>78.643000000000001</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="9">
         <v>80.381</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="9">
         <v>79.453000000000003</v>
       </c>
     </row>
@@ -1867,13 +4649,13 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="9">
         <v>80.474999999999994</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="9">
         <v>83.016000000000005</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="9">
         <v>74.605000000000004</v>
       </c>
     </row>
@@ -1881,13 +4663,13 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="9">
         <v>86.765000000000001</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="9">
         <v>87.221999999999994</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="9">
         <v>86.498999999999995</v>
       </c>
     </row>
@@ -1895,13 +4677,13 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="9">
         <v>97.611000000000004</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="9">
         <v>97.81</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="9">
         <v>97.885999999999996</v>
       </c>
     </row>
@@ -1909,14 +4691,70 @@
       <c r="A8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="9">
         <v>98.677999999999997</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="9">
         <v>98.921000000000006</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="9">
         <v>98.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18">
+        <v>15500</v>
       </c>
     </row>
   </sheetData>

--- a/resultados_execuções.xlsx
+++ b/resultados_execuções.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nokia-my.sharepoint.com/personal/lirielly_vitorugo_ext_nokia_com/Documents/TAIA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{D8C93F39-37D8-4502-8549-AEA9329B5266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C785307B-B279-45F9-81F1-DF66A17E3D81}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="8_{D8C93F39-37D8-4502-8549-AEA9329B5266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D344050-33E7-4A62-AC00-099D576CC66D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B526188B-A150-4160-8888-5D860A14F4A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{B526188B-A150-4160-8888-5D860A14F4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>VGG1</t>
   </si>
@@ -245,13 +246,46 @@
   </si>
   <si>
     <t>Observations</t>
+  </si>
+  <si>
+    <t>Gmean</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Execution</t>
+  </si>
+  <si>
+    <t>Median</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +316,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -350,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -375,6 +417,9 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1982,6 +2027,375 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-F12D-47A4-BAAD-72AA46BFE544}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F12D-47A4-BAAD-72AA46BFE544}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-F12D-47A4-BAAD-72AA46BFE544}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$15:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.510204082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52525252499999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F12D-47A4-BAAD-72AA46BFE544}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="837429608"/>
+        <c:axId val="837431904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="837429608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="837431904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="837431904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="837429608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2105,6 +2519,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -4099,6 +4553,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4272,6 +5229,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF76FB5-FA19-4468-AF8C-0B5F3B46AE44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4579,7 +5577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D59A954-1E67-4E13-8038-278281DA7C2B}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="B2:D8"/>
     </sheetView>
   </sheetViews>
@@ -5516,4 +6514,523 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAEA987-AAC5-4AB4-8226-6DFC35F5ADA3}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.25787593916455198</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.50531914893617003</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="F2" s="10">
+        <f>(G2+H2)/(G2+H2+I2+J2)</f>
+        <v>0.51</v>
+      </c>
+      <c r="G2">
+        <v>95</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>93</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.55497747702046396</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.55721393034825795</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.55445544554455395</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F3" s="10">
+        <f t="shared" ref="F3:F14" si="0">(G3+H3)/(G3+H3+I3+J3)</f>
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="G3">
+        <v>56</v>
+      </c>
+      <c r="H3">
+        <v>55</v>
+      </c>
+      <c r="I3">
+        <v>45</v>
+      </c>
+      <c r="J3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.59924953066314501</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.58762886597938102</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.60638297872340396</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="G4">
+        <v>57</v>
+      </c>
+      <c r="H4">
+        <v>63</v>
+      </c>
+      <c r="I4">
+        <v>37</v>
+      </c>
+      <c r="J4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.50990195100000002</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.50505050500000004</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.510204082</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" si="0"/>
+        <v>0.51</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>52</v>
+      </c>
+      <c r="I5">
+        <v>48</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.52659282200000002</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.534090909</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.47</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="0"/>
+        <v>0.53</v>
+      </c>
+      <c r="G6">
+        <v>47</v>
+      </c>
+      <c r="H6">
+        <v>59</v>
+      </c>
+      <c r="I6">
+        <v>41</v>
+      </c>
+      <c r="J6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.490713766</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.45989304800000003</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.49425287400000001</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.43</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.495</v>
+      </c>
+      <c r="G7">
+        <v>43</v>
+      </c>
+      <c r="H7">
+        <v>56</v>
+      </c>
+      <c r="I7">
+        <v>44</v>
+      </c>
+      <c r="J7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.50842895300000002</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.48958333300000001</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.51086956500000003</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.47</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="0"/>
+        <v>0.51</v>
+      </c>
+      <c r="G8">
+        <v>47</v>
+      </c>
+      <c r="H8">
+        <v>55</v>
+      </c>
+      <c r="I8">
+        <v>45</v>
+      </c>
+      <c r="J8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.51380930300000005</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.49740932599999998</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.51612903200000004</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="0"/>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="G9">
+        <v>48</v>
+      </c>
+      <c r="H9">
+        <v>55</v>
+      </c>
+      <c r="I9">
+        <v>45</v>
+      </c>
+      <c r="J9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.520960651</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.49197860999999998</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.52873563199999996</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="0"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G10">
+        <v>46</v>
+      </c>
+      <c r="H10">
+        <v>59</v>
+      </c>
+      <c r="I10">
+        <v>41</v>
+      </c>
+      <c r="J10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.53385391299999996</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.51813471499999997</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.53763440900000004</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>57</v>
+      </c>
+      <c r="I11">
+        <v>43</v>
+      </c>
+      <c r="J11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.54990908299999997</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.55445544599999996</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.54901960800000005</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G12">
+        <v>56</v>
+      </c>
+      <c r="H12">
+        <v>54</v>
+      </c>
+      <c r="I12">
+        <v>46</v>
+      </c>
+      <c r="J12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.52497618999999995</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.52261306500000004</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.52525252499999997</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.52</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G13">
+        <v>52</v>
+      </c>
+      <c r="H13">
+        <v>53</v>
+      </c>
+      <c r="I13">
+        <v>47</v>
+      </c>
+      <c r="J13">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.51961524199999998</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.510204082</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.52083333300000001</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>54</v>
+      </c>
+      <c r="I14">
+        <v>46</v>
+      </c>
+      <c r="J14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="11">
+        <f>MEDIAN(B2:B14)</f>
+        <v>0.520960651</v>
+      </c>
+      <c r="C15" s="11">
+        <f t="shared" ref="C15:J15" si="1">MEDIAN(C2:C14)</f>
+        <v>0.510204082</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" si="1"/>
+        <v>0.52525252499999997</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="1"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="I15" s="12">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>